--- a/ansible/example.xlsx
+++ b/ansible/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jude/Develop/Programing/Python/ansible_xlsx_inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jude/Working/Rancher/products/rke/provision/rancher-worker-nodes-registration/ansible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF2758-02C7-0344-B917-F1426217F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3519F6F-24CE-4F49-BCD2-F1F3F1757D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,21 +42,12 @@
     <t>DNS Name</t>
   </si>
   <si>
-    <t>FRA-1</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
-    <t>FRA-2</t>
-  </si>
-  <si>
     <t>ansible_host</t>
   </si>
   <si>
-    <t>10.20.10.02</t>
-  </si>
-  <si>
     <t>ansible_ssh_pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>k8s-master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>k8s-worker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,6 +89,22 @@
   </si>
   <si>
     <t>aws-sles-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.222.169.109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18.105.82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +488,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -505,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -517,64 +520,64 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
